--- a/National/Visualization/Infografias/Derecho a la información, a la no autoincriminacion y a una justicia pronta.xlsx
+++ b/National/Visualization/Infografias/Derecho a la información, a la no autoincriminacion y a una justicia pronta.xlsx
@@ -1,21 +1,143 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject.sharepoint.com/mexico/MEX Research Team/FEDERAL AWARDS/ENPOL/Data/National/Visualization/Infografias/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_06E56271EE6E0CFAF895FA8CBDA60DAFA2375970" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>value2plot</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>silencio_detencion</t>
+  </si>
+  <si>
+    <t>34%</t>
+  </si>
+  <si>
+    <t>silencio_mp</t>
+  </si>
+  <si>
+    <t>49%</t>
+  </si>
+  <si>
+    <t>silencio_juez</t>
+  </si>
+  <si>
+    <t>73%</t>
+  </si>
+  <si>
+    <t>silencio_interrogatorio</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>explicacion_detencion</t>
+  </si>
+  <si>
+    <t>explicacion_mp</t>
+  </si>
+  <si>
+    <t>69%</t>
+  </si>
+  <si>
+    <t>explicacion_juez</t>
+  </si>
+  <si>
+    <t>96%</t>
+  </si>
+  <si>
+    <t>declaracion_mp</t>
+  </si>
+  <si>
+    <t>38%</t>
+  </si>
+  <si>
+    <t>explicacion_hechos</t>
+  </si>
+  <si>
+    <t>91%</t>
+  </si>
+  <si>
+    <t>explicacion_proceso</t>
+  </si>
+  <si>
+    <t>81%</t>
+  </si>
+  <si>
+    <t>claridad_mp</t>
+  </si>
+  <si>
+    <t>59%</t>
+  </si>
+  <si>
+    <t>claridad_juez</t>
+  </si>
+  <si>
+    <t>claridad_defensor</t>
+  </si>
+  <si>
+    <t>60%</t>
+  </si>
+  <si>
+    <t>claridad_defendido</t>
+  </si>
+  <si>
+    <t>46%</t>
+  </si>
+  <si>
+    <t>podia_escuchar</t>
+  </si>
+  <si>
+    <t>93%</t>
+  </si>
+  <si>
+    <t>Tiempo_traslado_menor_4h</t>
+  </si>
+  <si>
+    <t>66%</t>
+  </si>
+  <si>
+    <t>menos2anios_prisionpreventiva</t>
+  </si>
+  <si>
+    <t>85%</t>
+  </si>
+  <si>
+    <t>tiempo_MP</t>
+  </si>
+  <si>
+    <t>65%</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,13 +185,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +237,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +271,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +306,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,298 +482,220 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>value2plot</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>label</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>silencio_detencion</t>
-        </is>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>34.17189479865271</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>34%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>silencio_mp</t>
-        </is>
+        <v>34.171894798652708</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>49.34825344019288</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>49%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>silencio_juez</t>
-        </is>
+        <v>49.348253440192877</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>73.19021319555785</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>73%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>silencio_interrogatorio</t>
-        </is>
+        <v>73.190213195557845</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>49.80288200108733</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>50%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>explicacion_detencion</t>
-        </is>
+        <v>49.802882001087333</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>49.7100376334139</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>50%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>explicacion_mp</t>
-        </is>
+        <v>49.710037633413897</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>68.5953903704599</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>69%</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>explicacion_juez</t>
-        </is>
+        <v>68.595390370459896</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>95.72129306778561</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>96%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>declaracion_mp</t>
-        </is>
+        <v>95.721293067785609</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>16</v>
       </c>
       <c r="B9">
         <v>37.71389845823721</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>38%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>explicacion_hechos</t>
-        </is>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>90.59236947791159</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>91%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>explicacion_proceso</t>
-        </is>
+        <v>90.592369477911589</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>80.66800602712215</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>81%</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>claridad_mp</t>
-        </is>
+        <v>80.668006027122146</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>22</v>
       </c>
       <c r="B12">
         <v>58.86265895238386</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>59%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>claridad_juez</t>
-        </is>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>24</v>
       </c>
       <c r="B13">
-        <v>68.54571879155216</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>69%</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>claridad_defensor</t>
-        </is>
+        <v>68.545718791552162</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>25</v>
       </c>
       <c r="B14">
-        <v>60.05475285171153</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>60%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>claridad_defendido</t>
-        </is>
+        <v>60.054752851711527</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>27</v>
       </c>
       <c r="B15">
-        <v>45.99010726393624</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>46%</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>podia_escuchar</t>
-        </is>
+        <v>45.990107263936238</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>29</v>
       </c>
       <c r="B16">
-        <v>93.34795105040155</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>93%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Tiempo_traslado_menor_4h</t>
-        </is>
+        <v>93.347951050401548</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>31</v>
       </c>
       <c r="B17">
-        <v>65.5337211130325</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>66%</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>menos2anios_prisionpreventiva</t>
-        </is>
+        <v>65.533721113032499</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>33</v>
       </c>
       <c r="B18">
-        <v>85.15118164967575</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>85%</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>tiempo_MP</t>
-        </is>
+        <v>85.151181649675749</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>35</v>
       </c>
       <c r="B19">
-        <v>64.87138263665624</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>65%</t>
-        </is>
+        <v>64.871382636656236</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -650,6 +704,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100062359308C733147A209A9423741ABB1" ma:contentTypeVersion="16" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="07e1bd31056440edbffe4983db46a097">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d2d4c2ad-b63f-415b-82f0-3296fc2966de" xmlns:ns3="69276225-f05c-44c5-92dc-c999460a4149" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b4352c450c4ad1c8576d7c278c1a2353" ns2:_="" ns3:_="">
     <xsd:import namespace="d2d4c2ad-b63f-415b-82f0-3296fc2966de"/>
@@ -892,19 +955,29 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75582F7F-2A15-461B-AF8A-BD8A59935EE7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6EA2DEA-AEDE-4462-9364-F44F77189C3E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30324F5A-99C7-425C-8BA3-1226B1A85206}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B3F8A8E-D2CF-485E-9A01-808240F3DC5D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d2d4c2ad-b63f-415b-82f0-3296fc2966de"/>
+    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>